--- a/CryptoWorkItemsExample/CoinsToWatch.xlsx
+++ b/CryptoWorkItemsExample/CoinsToWatch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasa\robocorp\CryptoWorkItemsExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C6200F-C125-4318-8558-A4466C3CA311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE8A71-FE1C-4EA5-AD16-47B7C47CBD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9558195D-67AA-4070-9745-1B60D292BACF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9558195D-67AA-4070-9745-1B60D292BACF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Coin</t>
   </si>
@@ -46,9 +46,6 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>BNB</t>
-  </si>
-  <si>
     <t>USDT</t>
   </si>
   <si>
@@ -61,21 +58,6 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>DOGE</t>
-  </si>
-  <si>
-    <t>USDC</t>
-  </si>
-  <si>
-    <t>SHIB</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
     <t>AVAX</t>
   </si>
   <si>
@@ -94,9 +76,6 @@
     <t xml:space="preserve">ethereum </t>
   </si>
   <si>
-    <t xml:space="preserve">binance coin </t>
-  </si>
-  <si>
     <t xml:space="preserve">tether </t>
   </si>
   <si>
@@ -107,21 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">xrp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">polkadot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dogecoin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">usd coin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiba inu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">terra </t>
   </si>
   <si>
     <t xml:space="preserve">avalanche </t>
@@ -522,21 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C21F44-934B-49B0-A0C9-B1E34DA2C651}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -550,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -561,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -572,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -583,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -594,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -605,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -616,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -627,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -638,81 +602,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
-    <sortCondition ref="A1:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="A1:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
